--- a/DownloadsCalendar/Calendar_8322.xlsx
+++ b/DownloadsCalendar/Calendar_8322.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
-  <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>Наименование вида работ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+  <si>
+    <t>№ этапа</t>
+  </si>
+  <si>
+    <t>Наименование этапа работ</t>
   </si>
   <si>
     <t>Дата начала</t>
@@ -26,70 +26,76 @@
     <t>Дата окончания</t>
   </si>
   <si>
-    <t>Этап проектирования (строительства) 1</t>
+    <t>Этап строительства 1</t>
   </si>
   <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>Полевые инженерные изыскания</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Отчет по инженерным изысканиям</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Согласование инженерных изысканий</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Рабочая документация</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Согласование рабочей документации</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>Сметная документация</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>Согласование сметной документации</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>Проектная документация</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Согласование проектной документации</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>3.3</t>
   </si>
   <si>
     <t>Экспертиза проектной документация</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>Землеустроительная документация</t>
   </si>
   <si>
-    <t>Этап проектирования (строительства) 2</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.4</t>
+    <t>Этап строительства 2</t>
   </si>
   <si>
     <t>5.1</t>
@@ -104,7 +110,13 @@
     <t>6.1</t>
   </si>
   <si>
-    <t>Этап проектирования (строительства) 3</t>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
   </si>
   <si>
     <t>7.1</t>
@@ -116,19 +128,70 @@
     <t>7.3</t>
   </si>
   <si>
-    <t>7.4</t>
-  </si>
-  <si>
     <t>8.1</t>
   </si>
   <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>8.3</t>
+    <t>Этап строительства 3</t>
   </si>
   <si>
     <t>9.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>Этап строительства 4</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>15.1</t>
   </si>
 </sst>
 </file>
@@ -251,7 +314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E29"/>
+  <dimension ref="B2:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -293,10 +356,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45401.0</v>
+        <v>45407.0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45425.0</v>
+        <v>45420.0</v>
       </c>
     </row>
     <row r="5">
@@ -307,10 +370,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45425.0</v>
+        <v>45420.0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45485.0</v>
+        <v>45420.0</v>
       </c>
     </row>
     <row r="6">
@@ -321,10 +384,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45425.0</v>
+        <v>45420.0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45456.0</v>
+        <v>45420.0</v>
       </c>
     </row>
     <row r="7">
@@ -335,10 +398,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45456.0</v>
+        <v>45420.0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45516.0</v>
+        <v>45450.0</v>
       </c>
     </row>
     <row r="8">
@@ -349,10 +412,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45425.0</v>
+        <v>45450.0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45456.0</v>
+        <v>45511.0</v>
       </c>
     </row>
     <row r="9">
@@ -363,10 +426,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45456.0</v>
+        <v>45450.0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45516.0</v>
+        <v>45481.0</v>
       </c>
     </row>
     <row r="10">
@@ -377,10 +440,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45516.0</v>
+        <v>45481.0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45635.0</v>
+        <v>45544.0</v>
       </c>
     </row>
     <row r="11">
@@ -391,257 +454,504 @@
         <v>20</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45456.0</v>
+        <v>45450.0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45607.0</v>
+        <v>45481.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="4">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45481.0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45544.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45425.0</v>
+        <v>45544.0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45454.0</v>
+        <v>45666.0</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45454.0</v>
+        <v>45481.0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45516.0</v>
+        <v>45616.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>45454.0</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>45484.0</v>
-      </c>
+      <c r="B15" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16">
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45484.0</v>
+        <v>45436.0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45544.0</v>
+        <v>45450.0</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45454.0</v>
+        <v>45450.0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45484.0</v>
+        <v>45450.0</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45484.0</v>
+        <v>45450.0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45544.0</v>
+        <v>45450.0</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45544.0</v>
+        <v>45450.0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45666.0</v>
+        <v>45481.0</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45484.0</v>
+        <v>45481.0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45635.0</v>
+        <v>45544.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45481.0</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45511.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45454.0</v>
+        <v>45511.0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45457.0</v>
+        <v>45555.0</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45457.0</v>
+        <v>45481.0</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45517.0</v>
+        <v>45511.0</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45457.0</v>
+        <v>45511.0</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45488.0</v>
+        <v>45555.0</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45488.0</v>
+        <v>45555.0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45547.0</v>
+        <v>45677.0</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45457.0</v>
+        <v>45511.0</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45488.0</v>
+        <v>45666.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>45488.0</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>45547.0</v>
-      </c>
+      <c r="B27" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28">
       <c r="B28" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45547.0</v>
+        <v>45467.0</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45667.0</v>
+        <v>45481.0</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45481.0</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45481.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45481.0</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45481.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45481.0</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45490.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45490.0</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45551.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45490.0</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45520.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45520.0</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45580.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>45488.0</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>45666.0</v>
+      <c r="D35" s="2" t="n">
+        <v>45490.0</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45520.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45520.0</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45580.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45580.0</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45700.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45520.0</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45670.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45490.0</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45511.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45511.0</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45573.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45511.0</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45544.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45544.0</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45603.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45511.0</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45544.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45544.0</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45603.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45603.0</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45726.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45544.0</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45695.0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DownloadsCalendar/Calendar_8322.xlsx
+++ b/DownloadsCalendar/Calendar_8322.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>№ этапа</t>
   </si>
@@ -179,9 +179,6 @@
     <t>13.3</t>
   </si>
   <si>
-    <t>13.4</t>
-  </si>
-  <si>
     <t>14.1</t>
   </si>
   <si>
@@ -191,7 +188,55 @@
     <t>14.3</t>
   </si>
   <si>
+    <t>14.4</t>
+  </si>
+  <si>
     <t>15.1</t>
+  </si>
+  <si>
+    <t>15.2</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>Этап строительства 7</t>
+  </si>
+  <si>
+    <t>17.1</t>
+  </si>
+  <si>
+    <t>17.2</t>
+  </si>
+  <si>
+    <t>17.3</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>20.1</t>
   </si>
 </sst>
 </file>
@@ -211,7 +256,7 @@
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="14.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -314,13 +359,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E47"/>
+  <dimension ref="B2:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="7.8125" customWidth="true"/>
+    <col min="2" max="2" width="10.9375" customWidth="true"/>
     <col min="3" max="3" width="39.0625" customWidth="true"/>
     <col min="4" max="4" width="23.4375" customWidth="true"/>
     <col min="5" max="5" width="23.4375" customWidth="true"/>
@@ -356,10 +401,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45407.0</v>
+        <v>45414.0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45420.0</v>
+        <v>45446.0</v>
       </c>
     </row>
     <row r="5">
@@ -370,10 +415,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45420.0</v>
+        <v>45446.0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45420.0</v>
+        <v>45524.0</v>
       </c>
     </row>
     <row r="6">
@@ -384,10 +429,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45420.0</v>
+        <v>45524.0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45420.0</v>
+        <v>45601.0</v>
       </c>
     </row>
     <row r="7">
@@ -398,10 +443,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45420.0</v>
+        <v>45524.0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45450.0</v>
+        <v>45568.0</v>
       </c>
     </row>
     <row r="8">
@@ -412,10 +457,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45450.0</v>
+        <v>45568.0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45511.0</v>
+        <v>45629.0</v>
       </c>
     </row>
     <row r="9">
@@ -426,10 +471,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45450.0</v>
+        <v>45568.0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45481.0</v>
+        <v>45601.0</v>
       </c>
     </row>
     <row r="10">
@@ -440,10 +485,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45481.0</v>
+        <v>45601.0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45544.0</v>
+        <v>45666.0</v>
       </c>
     </row>
     <row r="11">
@@ -454,10 +499,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45450.0</v>
+        <v>45568.0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45481.0</v>
+        <v>45601.0</v>
       </c>
     </row>
     <row r="12">
@@ -468,10 +513,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45481.0</v>
+        <v>45601.0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45544.0</v>
+        <v>45666.0</v>
       </c>
     </row>
     <row r="13">
@@ -482,10 +527,10 @@
         <v>24</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45544.0</v>
+        <v>45666.0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45666.0</v>
+        <v>45782.0</v>
       </c>
     </row>
     <row r="14">
@@ -496,10 +541,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45481.0</v>
+        <v>45601.0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45616.0</v>
+        <v>45719.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,10 +563,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45436.0</v>
+        <v>45434.0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45450.0</v>
+        <v>45454.0</v>
       </c>
     </row>
     <row r="17">
@@ -532,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45450.0</v>
+        <v>45454.0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45450.0</v>
+        <v>45569.0</v>
       </c>
     </row>
     <row r="18">
@@ -546,10 +591,10 @@
         <v>10</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45450.0</v>
+        <v>45569.0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45450.0</v>
+        <v>45629.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,10 +605,10 @@
         <v>12</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45450.0</v>
+        <v>45569.0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45481.0</v>
+        <v>45601.0</v>
       </c>
     </row>
     <row r="20">
@@ -574,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45481.0</v>
+        <v>45601.0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45544.0</v>
+        <v>45666.0</v>
       </c>
     </row>
     <row r="21">
@@ -588,10 +633,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45481.0</v>
+        <v>45601.0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45511.0</v>
+        <v>45631.0</v>
       </c>
     </row>
     <row r="22">
@@ -602,10 +647,10 @@
         <v>18</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45511.0</v>
+        <v>45631.0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45555.0</v>
+        <v>45691.0</v>
       </c>
     </row>
     <row r="23">
@@ -616,10 +661,10 @@
         <v>20</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45481.0</v>
+        <v>45601.0</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45511.0</v>
+        <v>45631.0</v>
       </c>
     </row>
     <row r="24">
@@ -630,10 +675,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45511.0</v>
+        <v>45631.0</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45555.0</v>
+        <v>45691.0</v>
       </c>
     </row>
     <row r="25">
@@ -644,10 +689,10 @@
         <v>24</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45555.0</v>
+        <v>45691.0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45677.0</v>
+        <v>45811.0</v>
       </c>
     </row>
     <row r="26">
@@ -658,10 +703,10 @@
         <v>26</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45511.0</v>
+        <v>45631.0</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45666.0</v>
+        <v>45751.0</v>
       </c>
     </row>
     <row r="27">
@@ -680,10 +725,10 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45467.0</v>
+        <v>45454.0</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45481.0</v>
+        <v>45474.0</v>
       </c>
     </row>
     <row r="29">
@@ -694,10 +739,10 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45481.0</v>
+        <v>45474.0</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45481.0</v>
+        <v>45614.0</v>
       </c>
     </row>
     <row r="30">
@@ -708,10 +753,10 @@
         <v>10</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45481.0</v>
+        <v>45614.0</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45481.0</v>
+        <v>45674.0</v>
       </c>
     </row>
     <row r="31">
@@ -722,10 +767,10 @@
         <v>12</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45481.0</v>
+        <v>45614.0</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45490.0</v>
+        <v>45628.0</v>
       </c>
     </row>
     <row r="32">
@@ -736,10 +781,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45490.0</v>
+        <v>45628.0</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45551.0</v>
+        <v>45691.0</v>
       </c>
     </row>
     <row r="33">
@@ -750,10 +795,10 @@
         <v>16</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45490.0</v>
+        <v>45628.0</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45520.0</v>
+        <v>45666.0</v>
       </c>
     </row>
     <row r="34">
@@ -764,10 +809,10 @@
         <v>18</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45520.0</v>
+        <v>45666.0</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45580.0</v>
+        <v>45726.0</v>
       </c>
     </row>
     <row r="35">
@@ -778,10 +823,10 @@
         <v>20</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45490.0</v>
+        <v>45628.0</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45520.0</v>
+        <v>45666.0</v>
       </c>
     </row>
     <row r="36">
@@ -792,10 +837,10 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45520.0</v>
+        <v>45666.0</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45580.0</v>
+        <v>45726.0</v>
       </c>
     </row>
     <row r="37">
@@ -806,10 +851,10 @@
         <v>24</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45580.0</v>
+        <v>45726.0</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45700.0</v>
+        <v>45846.0</v>
       </c>
     </row>
     <row r="38">
@@ -820,10 +865,10 @@
         <v>26</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45520.0</v>
+        <v>45666.0</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45670.0</v>
+        <v>45789.0</v>
       </c>
     </row>
     <row r="39">
@@ -839,13 +884,13 @@
         <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45490.0</v>
+        <v>45474.0</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45511.0</v>
+        <v>45509.0</v>
       </c>
     </row>
     <row r="41">
@@ -853,13 +898,13 @@
         <v>53</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45511.0</v>
+        <v>45509.0</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45573.0</v>
+        <v>45666.0</v>
       </c>
     </row>
     <row r="42">
@@ -867,13 +912,13 @@
         <v>54</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45511.0</v>
+        <v>45666.0</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45544.0</v>
+        <v>45726.0</v>
       </c>
     </row>
     <row r="43">
@@ -881,13 +926,13 @@
         <v>55</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45544.0</v>
+        <v>45666.0</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45603.0</v>
+        <v>45691.0</v>
       </c>
     </row>
     <row r="44">
@@ -895,13 +940,13 @@
         <v>56</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45511.0</v>
+        <v>45691.0</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45544.0</v>
+        <v>45750.0</v>
       </c>
     </row>
     <row r="45">
@@ -909,13 +954,13 @@
         <v>57</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45544.0</v>
+        <v>45691.0</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45603.0</v>
+        <v>45719.0</v>
       </c>
     </row>
     <row r="46">
@@ -923,13 +968,13 @@
         <v>58</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45603.0</v>
+        <v>45719.0</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45726.0</v>
+        <v>45782.0</v>
       </c>
     </row>
     <row r="47">
@@ -937,21 +982,226 @@
         <v>59</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45691.0</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45719.0</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45782.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45782.0</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45903.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>45544.0</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>45695.0</v>
+      <c r="D50" s="2" t="n">
+        <v>45719.0</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45841.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45495.0</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45516.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45516.0</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45719.0</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45782.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45719.0</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45734.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45734.0</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45796.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45734.0</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45764.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45764.0</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45824.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45734.0</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45764.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45764.0</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45824.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45824.0</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45944.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45764.0</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45884.0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B51:E51"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
